--- a/TestFiles/poria/words/word_11.xlsx
+++ b/TestFiles/poria/words/word_11.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3838279999999976</v>
+        <v>0.3838279999999941</v>
       </c>
       <c r="B2">
-        <v>0.4882284000000006</v>
+        <v>0.488228399999997</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.6160151999999961</v>
+        <v>0.6160151999999925</v>
       </c>
       <c r="B3">
-        <v>0.7122077999999981</v>
+        <v>0.7122077999999945</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8442187000000025</v>
+        <v>0.844218699999999</v>
       </c>
       <c r="B4">
-        <v>0.9400642999999995</v>
+        <v>0.940064299999996</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.283973300000003</v>
+        <v>1.2839733</v>
       </c>
       <c r="B5">
-        <v>1.384106599999999</v>
+        <v>1.384106599999996</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
